--- a/test_example_repo.xlsx
+++ b/test_example_repo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\amc.intra\users\M\mmitratza\home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\ExampleRepo-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>new</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,7 +349,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>